--- a/service-system/src/main/resources/static/隧道总体宽度.xlsx
+++ b/service-system/src/main/resources/static/隧道总体宽度.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4BE8C4-10AF-4280-9BEE-7B208B8ED33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="隧道总体宽度" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>李文华</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -214,13 +220,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="177" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -380,33 +386,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -415,40 +418,40 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -456,20 +459,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -803,366 +806,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="16" customWidth="1"/>
-    <col min="6" max="7" width="9" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="14" customWidth="1"/>
+    <col min="6" max="7" width="9" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="8" t="s">
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
+    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1184,10 +1187,7 @@
   <pageMargins left="0.94488188976377963" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.59055118110236227"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C
-检测：                                    复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
